--- a/HEW/assets/data.xlsx
+++ b/HEW/assets/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namen\OneDrive\ドキュメント\GitHub\Edamame\HEW\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoki\Documents\GitHub\Edamame\HEW\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -966,12 +966,12 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1058,16 +1058,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1090,16 +1090,16 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1122,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1186,16 +1186,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1291,12 +1291,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>-999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>

--- a/HEW/assets/data.xlsx
+++ b/HEW/assets/data.xlsx
@@ -20,7 +20,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +177,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -606,8 +614,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,7 +666,2115 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="276">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -963,13 +3082,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1">
@@ -1049,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1058,13 +3180,13 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -1081,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1090,13 +3212,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -1113,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1122,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -1145,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1154,13 +3276,13 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -1177,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1186,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -1293,7 +3415,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>-999</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -1325,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1354,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1374,7 +3496,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1383,13 +3505,13 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -1406,22 +3528,22 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -1438,22 +3560,22 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -1473,19 +3595,19 @@
         <v>-1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1499,25 +3621,25 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E18">
         <v>-1</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -1528,28 +3650,28 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -1557,79 +3679,3617 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>-1</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="B39">
+        <v>-1</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>-1</v>
+      </c>
+      <c r="C47">
+        <v>-1</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>-1</v>
+      </c>
+      <c r="B48">
+        <v>-1</v>
+      </c>
+      <c r="C48">
+        <v>-1</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>-1</v>
+      </c>
+      <c r="B49">
+        <v>-1</v>
+      </c>
+      <c r="C49">
+        <v>-1</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>-1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J67" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+      <c r="H68">
+        <v>-1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J68" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>-1</v>
+      </c>
+      <c r="G69">
+        <v>-1</v>
+      </c>
+      <c r="H69">
+        <v>-1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>-1</v>
+      </c>
+      <c r="F70">
+        <v>-1</v>
+      </c>
+      <c r="G70">
+        <v>-1</v>
+      </c>
+      <c r="H70">
+        <v>-1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>-1</v>
+      </c>
+      <c r="E71">
+        <v>-1</v>
+      </c>
+      <c r="F71">
+        <v>-1</v>
+      </c>
+      <c r="G71">
+        <v>-1</v>
+      </c>
+      <c r="H71">
+        <v>-1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>-1</v>
+      </c>
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="E72">
+        <v>-1</v>
+      </c>
+      <c r="F72">
+        <v>-1</v>
+      </c>
+      <c r="G72">
+        <v>-1</v>
+      </c>
+      <c r="H72">
+        <v>-1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J72" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>-1</v>
+      </c>
+      <c r="C73">
+        <v>-1</v>
+      </c>
+      <c r="D73">
+        <v>-1</v>
+      </c>
+      <c r="E73">
+        <v>-1</v>
+      </c>
+      <c r="F73">
+        <v>-1</v>
+      </c>
+      <c r="G73">
+        <v>-1</v>
+      </c>
+      <c r="H73">
+        <v>-1</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>-1</v>
+      </c>
+      <c r="B74">
+        <v>-1</v>
+      </c>
+      <c r="C74">
+        <v>-1</v>
+      </c>
+      <c r="D74">
+        <v>-1</v>
+      </c>
+      <c r="E74">
+        <v>-1</v>
+      </c>
+      <c r="F74">
+        <v>-1</v>
+      </c>
+      <c r="G74">
+        <v>-1</v>
+      </c>
+      <c r="H74">
+        <v>-1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J74" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>-1</v>
+      </c>
+      <c r="G78">
+        <v>-1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J78" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>-1</v>
+      </c>
+      <c r="F79">
+        <v>-1</v>
+      </c>
+      <c r="G79">
+        <v>-1</v>
+      </c>
+      <c r="H79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>-1</v>
+      </c>
+      <c r="E80">
+        <v>-1</v>
+      </c>
+      <c r="F80">
+        <v>-1</v>
+      </c>
+      <c r="G80">
+        <v>-1</v>
+      </c>
+      <c r="H80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J80" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>-1</v>
+      </c>
+      <c r="D81">
+        <v>-1</v>
+      </c>
+      <c r="E81">
+        <v>-1</v>
+      </c>
+      <c r="F81">
+        <v>-1</v>
+      </c>
+      <c r="G81">
+        <v>-1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J81" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>-1</v>
+      </c>
+      <c r="C82">
+        <v>-1</v>
+      </c>
+      <c r="D82">
+        <v>-1</v>
+      </c>
+      <c r="E82">
+        <v>-1</v>
+      </c>
+      <c r="F82">
+        <v>-1</v>
+      </c>
+      <c r="G82">
+        <v>-1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>-1</v>
+      </c>
+      <c r="B83">
+        <v>-1</v>
+      </c>
+      <c r="C83">
+        <v>-1</v>
+      </c>
+      <c r="D83">
+        <v>-1</v>
+      </c>
+      <c r="E83">
+        <v>-1</v>
+      </c>
+      <c r="F83">
+        <v>-1</v>
+      </c>
+      <c r="G83">
+        <v>-1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>-1</v>
+      </c>
+      <c r="B84">
+        <v>-1</v>
+      </c>
+      <c r="C84">
+        <v>-1</v>
+      </c>
+      <c r="D84">
+        <v>-1</v>
+      </c>
+      <c r="E84">
+        <v>-1</v>
+      </c>
+      <c r="F84">
+        <v>-1</v>
+      </c>
+      <c r="G84">
+        <v>-1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J84" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J87" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>-1</v>
+      </c>
+      <c r="E89">
+        <v>-1</v>
+      </c>
+      <c r="F89">
+        <v>-1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H89" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I89" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>-1</v>
+      </c>
+      <c r="D90">
+        <v>-1</v>
+      </c>
+      <c r="E90">
+        <v>-1</v>
+      </c>
+      <c r="F90">
+        <v>-1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I90" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J90" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>-1</v>
+      </c>
+      <c r="C91">
+        <v>-1</v>
+      </c>
+      <c r="D91">
+        <v>-1</v>
+      </c>
+      <c r="E91">
+        <v>-1</v>
+      </c>
+      <c r="F91">
+        <v>-1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>-1</v>
+      </c>
+      <c r="B92">
+        <v>-1</v>
+      </c>
+      <c r="C92">
+        <v>-1</v>
+      </c>
+      <c r="D92">
+        <v>-1</v>
+      </c>
+      <c r="E92">
+        <v>-1</v>
+      </c>
+      <c r="F92">
+        <v>-1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>-1</v>
+      </c>
+      <c r="B93">
+        <v>-1</v>
+      </c>
+      <c r="C93">
+        <v>-1</v>
+      </c>
+      <c r="D93">
+        <v>-1</v>
+      </c>
+      <c r="E93">
+        <v>-1</v>
+      </c>
+      <c r="F93">
+        <v>-1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J93" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>-1</v>
+      </c>
+      <c r="B94">
+        <v>-1</v>
+      </c>
+      <c r="C94">
+        <v>-1</v>
+      </c>
+      <c r="D94">
+        <v>-1</v>
+      </c>
+      <c r="E94">
+        <v>-1</v>
+      </c>
+      <c r="F94">
+        <v>-1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J94" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>-1</v>
+      </c>
+      <c r="C100">
+        <v>-1</v>
+      </c>
+      <c r="D100">
+        <v>-1</v>
+      </c>
+      <c r="E100">
+        <v>-1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J100" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>-1</v>
+      </c>
+      <c r="B101">
+        <v>-1</v>
+      </c>
+      <c r="C101">
+        <v>-1</v>
+      </c>
+      <c r="D101">
+        <v>-1</v>
+      </c>
+      <c r="E101">
+        <v>-1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>-1</v>
+      </c>
+      <c r="B102">
+        <v>-1</v>
+      </c>
+      <c r="C102">
+        <v>-1</v>
+      </c>
+      <c r="D102">
+        <v>-1</v>
+      </c>
+      <c r="E102">
+        <v>-1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J102" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>-1</v>
+      </c>
+      <c r="B103">
+        <v>-1</v>
+      </c>
+      <c r="C103">
+        <v>-1</v>
+      </c>
+      <c r="D103">
+        <v>-1</v>
+      </c>
+      <c r="E103">
+        <v>-1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>-1</v>
+      </c>
+      <c r="B104">
+        <v>-1</v>
+      </c>
+      <c r="C104">
+        <v>-1</v>
+      </c>
+      <c r="D104">
+        <v>-1</v>
+      </c>
+      <c r="E104">
+        <v>-1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J104" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J105" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J106" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J108" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J109" s="1">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:J21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:J13 A14:G14 I14:J21 A15:F15 A16:E16 A17:D17 A18:C18 A19:B19 A20">
+    <cfRule type="cellIs" dxfId="275" priority="276" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="275" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="274" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="273" operator="equal">
       <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:J32 A22:G22 I22:J22 H23:J29">
+    <cfRule type="cellIs" dxfId="268" priority="269" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="270" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="271" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="272" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:J33">
+    <cfRule type="cellIs" dxfId="264" priority="265" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="266" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="267" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="268" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:J44">
+    <cfRule type="cellIs" dxfId="260" priority="261" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="262" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="263" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="264" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:J43 G34:J39">
+    <cfRule type="cellIs" dxfId="259" priority="257" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="258" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="260" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:J54 F45:J49 A55">
+    <cfRule type="cellIs" dxfId="143" priority="253" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="254" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="255" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="256" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H22">
+    <cfRule type="cellIs" dxfId="252" priority="249" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="250" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="251" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="252" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G21">
+    <cfRule type="cellIs" dxfId="251" priority="245" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="246" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="248" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F21">
+    <cfRule type="cellIs" dxfId="247" priority="241" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="242" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="243" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="244" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E21">
+    <cfRule type="cellIs" dxfId="243" priority="237" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="238" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="239" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="240" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D21">
+    <cfRule type="cellIs" dxfId="239" priority="233" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="234" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="235" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="236" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="cellIs" dxfId="235" priority="229" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="230" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="231" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="232" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="cellIs" dxfId="231" priority="225" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="226" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="227" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="228" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="227" priority="221" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="222" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="223" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="224" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:G23 A24:F24 A25:E25 A26:D26 A27:C27 A28:B28 A29">
+    <cfRule type="cellIs" dxfId="220" priority="217" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="218" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="219" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="220" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G29">
+    <cfRule type="cellIs" dxfId="219" priority="213" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="214" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="215" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="216" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F29">
+    <cfRule type="cellIs" dxfId="215" priority="209" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="210" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="211" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="212" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E29">
+    <cfRule type="cellIs" dxfId="211" priority="205" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="206" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="207" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="208" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="cellIs" dxfId="207" priority="201" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="202" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="203" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="204" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="cellIs" dxfId="203" priority="197" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="198" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="199" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="200" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="cellIs" dxfId="199" priority="193" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="194" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="195" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="196" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:E34 A35:D35 A36:C36 A37:B37 A38">
+    <cfRule type="cellIs" dxfId="195" priority="189" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="190" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="191" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="192" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F39">
+    <cfRule type="cellIs" dxfId="191" priority="185" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="186" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="187" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="188" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E39">
+    <cfRule type="cellIs" dxfId="187" priority="181" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="182" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="183" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="184" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:D39">
+    <cfRule type="cellIs" dxfId="183" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="178" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="179" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="180" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39">
+    <cfRule type="cellIs" dxfId="179" priority="173" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="174" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="175" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="176" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B39">
+    <cfRule type="cellIs" dxfId="175" priority="169" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="170" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="171" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="172" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="cellIs" dxfId="171" priority="165" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="166" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="167" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="168" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:C45 A46:B46 A47">
+    <cfRule type="cellIs" dxfId="167" priority="161" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="162" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="164" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E49">
+    <cfRule type="cellIs" dxfId="163" priority="157" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="158" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="159" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="160" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D49">
+    <cfRule type="cellIs" dxfId="159" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="154" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C49">
+    <cfRule type="cellIs" dxfId="155" priority="149" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="150" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="151" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="152" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:B49">
+    <cfRule type="cellIs" dxfId="151" priority="145" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="146" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="147" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="148" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:A49">
+    <cfRule type="cellIs" dxfId="147" priority="141" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="142" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="143" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="144" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:J65 A66">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="138" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="139" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="140" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:H67 A68:F68 H68:H74 A69:E69 A70:D70 A71:C71 A72:B72 A73">
+    <cfRule type="cellIs" dxfId="132" priority="133" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="135" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="136" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:G74">
+    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="130" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="131" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="132" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69:F74">
+    <cfRule type="cellIs" dxfId="127" priority="125" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="126" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:E74">
+    <cfRule type="cellIs" dxfId="123" priority="121" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="123" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="124" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:D74">
+    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="119" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="120" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72:C74">
+    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:B74">
+    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="110" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67:J76 A75:H76">
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86:J87 A88 I78:J85">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:J98 H89:J95">
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:J109 F100:J105">
+    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:E78 G78:G84 A79:D79 A80:C80 A81:B81 A82">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78:F84">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:E84">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D80:D84">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C84">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B84">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:A84">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78:H85 A85:G85">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89:F94 A89:C89 A90:B90 A91">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89:E94">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89:D94">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C94">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91:B94">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:A94">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89:G95 A95:F95">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100:E104 A100">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D104">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100:C104">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100:B104">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:A104">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:E105">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HEW/assets/data.xlsx
+++ b/HEW/assets/data.xlsx
@@ -666,7 +666,131 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="232">
+  <dxfs count="248">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2744,7 +2868,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="A23:J32"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2754,19 +2878,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F1">
         <v>2</v>
@@ -2786,19 +2910,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -2818,19 +2942,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2850,19 +2974,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2882,19 +3006,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2920,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3079,19 +3203,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -3111,19 +3235,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -3143,19 +3267,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -3175,19 +3299,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -3207,19 +3331,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -4699,357 +4823,609 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A11:J11 A1:H8 J12:J21 B12:B21 D12:D21 F12:F21 H12:H21">
-    <cfRule type="cellIs" dxfId="231" priority="357" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="358" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="359" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="360" operator="equal">
+  <conditionalFormatting sqref="A11:J11 A7:H8 J12:J21 B17:B21 D17:D21 F12:F21 H12:H21 F1:H6">
+    <cfRule type="cellIs" dxfId="247" priority="469" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="470" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="471" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="472" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:G22 I22:J32 A23:H32">
-    <cfRule type="cellIs" dxfId="227" priority="353" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="354" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="355" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="465" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="466" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="467" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="468" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="223" priority="337" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="338" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="339" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="449" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="450" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="451" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="452" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="219" priority="333" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="334" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="335" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="445" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="446" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="447" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="448" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:J43 A44">
-    <cfRule type="cellIs" dxfId="159" priority="221" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="222" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="223" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="333" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="334" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="335" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="336" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:H45 A46:F46 H46:H52 A47:E47 A48:D48 A49:C49 A50:B50 A51">
-    <cfRule type="cellIs" dxfId="155" priority="217" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="218" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="219" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="329" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="330" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="331" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="332" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:G52">
-    <cfRule type="cellIs" dxfId="151" priority="213" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="214" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="215" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="325" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="326" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="327" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="328" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F52">
-    <cfRule type="cellIs" dxfId="147" priority="209" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="210" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="211" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="321" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="322" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="323" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="324" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E52">
-    <cfRule type="cellIs" dxfId="143" priority="205" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="206" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="207" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="317" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="318" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="319" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="320" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D52">
-    <cfRule type="cellIs" dxfId="139" priority="201" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="202" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="203" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="313" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="314" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="315" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="316" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C52">
-    <cfRule type="cellIs" dxfId="135" priority="197" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="198" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="199" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="309" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="310" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="311" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="312" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B52">
-    <cfRule type="cellIs" dxfId="131" priority="193" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="194" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="195" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="305" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="306" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="307" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="308" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="127" priority="189" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="190" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="191" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="301" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="302" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="303" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="304" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J54 A53:H54">
-    <cfRule type="cellIs" dxfId="123" priority="185" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="186" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="187" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="297" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="298" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="299" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="300" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:J65 I56:J63">
-    <cfRule type="cellIs" dxfId="119" priority="181" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="182" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="183" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="293" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="294" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="295" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="296" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:E56 G56:G62 A57:D57 A58:C58 A59:B59 A60">
-    <cfRule type="cellIs" dxfId="115" priority="165" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="166" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="167" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="277" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="278" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="279" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="280" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F62">
-    <cfRule type="cellIs" dxfId="111" priority="161" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="162" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="163" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="273" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="274" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="275" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="276" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E62">
-    <cfRule type="cellIs" dxfId="107" priority="157" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="158" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="159" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="269" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="270" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="271" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="272" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D62">
-    <cfRule type="cellIs" dxfId="103" priority="153" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="154" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="155" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="265" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="266" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="267" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="268" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C62">
-    <cfRule type="cellIs" dxfId="99" priority="149" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="150" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="151" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="261" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="262" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="263" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="264" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62">
-    <cfRule type="cellIs" dxfId="95" priority="145" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="146" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="147" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="257" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="258" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="260" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A62">
-    <cfRule type="cellIs" dxfId="91" priority="141" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="142" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="143" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="253" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="254" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="255" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="256" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H63 A63:G63">
-    <cfRule type="cellIs" dxfId="87" priority="137" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="138" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="139" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="249" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="250" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="251" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="252" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J10">
-    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="193" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="194" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="195" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="196" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I8">
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I21 A12:A21 C12:C21 E12:E21 G12:G21">
+    <cfRule type="cellIs" dxfId="151" priority="189" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="190" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="191" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="192" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I21 A17:A21 C17:C21 E17:E21 G12:G21">
+    <cfRule type="cellIs" dxfId="147" priority="185" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="186" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="187" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="188" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I10">
+    <cfRule type="cellIs" dxfId="143" priority="181" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="182" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="183" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="184" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="cellIs" dxfId="139" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="178" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="179" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="180" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F10">
+    <cfRule type="cellIs" dxfId="135" priority="173" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="174" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="175" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="176" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="cellIs" dxfId="131" priority="169" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="170" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="171" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="172" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="cellIs" dxfId="127" priority="165" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="166" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="167" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="cellIs" dxfId="123" priority="161" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="162" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="164" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="cellIs" dxfId="119" priority="157" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="158" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="159" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="160" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
+    <cfRule type="cellIs" dxfId="115" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="154" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H10">
+    <cfRule type="cellIs" dxfId="111" priority="149" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="150" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="151" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="152" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I21 A20:A21 C20:C21 E20:E21 G20:G21">
+    <cfRule type="cellIs" dxfId="107" priority="145" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="146" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="147" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="148" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E2">
+    <cfRule type="cellIs" dxfId="103" priority="109" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D4">
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A4">
+    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C4">
+    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="95" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="96" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B4">
+    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="90" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="91" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="92" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:E6">
+    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="87" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="88" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="84" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:D12">
     <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5063,7 +5439,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I10">
+  <conditionalFormatting sqref="A14:D15">
     <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5077,7 +5453,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G10">
+  <conditionalFormatting sqref="A13:D13">
     <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5091,7 +5467,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F10">
+  <conditionalFormatting sqref="E13">
     <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5105,7 +5481,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
+  <conditionalFormatting sqref="E14">
     <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5119,7 +5495,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
+  <conditionalFormatting sqref="A16:B16 D16">
     <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5133,7 +5509,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10">
+  <conditionalFormatting sqref="E16">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5147,7 +5523,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10">
+  <conditionalFormatting sqref="E1:E4">
     <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5161,7 +5537,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A10">
+  <conditionalFormatting sqref="D1:D4">
     <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5175,7 +5551,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H10">
+  <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5189,7 +5565,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I21 A20:A21 C20:C21 E20:E21 G20:G21">
+  <conditionalFormatting sqref="A5">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5200,6 +5576,118 @@
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/HEW/assets/data.xlsx
+++ b/HEW/assets/data.xlsx
@@ -666,7 +666,1092 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="248">
+  <dxfs count="388">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2867,8 +3952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3853,25 +4938,25 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3885,25 +4970,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3916,23 +5001,23 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>1</v>
+      <c r="A36" s="1">
+        <v>-1</v>
       </c>
       <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-1</v>
       </c>
       <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-1</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3949,16 +5034,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -3981,13 +5066,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4013,10 +5098,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -4045,7 +5130,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -4178,13 +5263,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -4196,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>-1</v>
@@ -4210,10 +5295,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -4228,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>-1</v>
@@ -4242,7 +5327,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -4254,10 +5339,10 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G47">
         <v>-1</v>
@@ -4283,7 +5368,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48">
         <v>-1</v>
@@ -4312,7 +5397,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -4341,7 +5426,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>-1</v>
@@ -4370,7 +5455,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>-1</v>
@@ -4509,15 +5594,15 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F56" s="1">
         <v>-1</v>
       </c>
       <c r="G56">
@@ -4541,15 +5626,15 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>-1</v>
-      </c>
-      <c r="F57">
+        <v>-1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F57" s="1">
         <v>-1</v>
       </c>
       <c r="G57">
@@ -4567,21 +5652,21 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
-        <v>-1</v>
-      </c>
-      <c r="E58">
-        <v>-1</v>
-      </c>
-      <c r="F58">
+        <v>-1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F58" s="1">
         <v>-1</v>
       </c>
       <c r="G58">
@@ -4598,22 +5683,22 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <v>3</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <v>-1</v>
-      </c>
-      <c r="D59">
-        <v>-1</v>
-      </c>
-      <c r="E59">
-        <v>-1</v>
-      </c>
-      <c r="F59">
+      <c r="A59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="1">
         <v>-1</v>
       </c>
       <c r="G59">
@@ -4630,22 +5715,22 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60">
-        <v>3</v>
-      </c>
-      <c r="B60">
-        <v>-1</v>
-      </c>
-      <c r="C60">
-        <v>-1</v>
-      </c>
-      <c r="D60">
-        <v>-1</v>
-      </c>
-      <c r="E60">
-        <v>-1</v>
-      </c>
-      <c r="F60">
+      <c r="A60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F60" s="1">
         <v>-1</v>
       </c>
       <c r="G60">
@@ -4662,22 +5747,22 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61">
-        <v>-1</v>
-      </c>
-      <c r="B61">
-        <v>-1</v>
-      </c>
-      <c r="C61">
-        <v>-1</v>
-      </c>
-      <c r="D61">
-        <v>-1</v>
-      </c>
-      <c r="E61">
-        <v>-1</v>
-      </c>
-      <c r="F61">
+      <c r="A61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="1">
         <v>-1</v>
       </c>
       <c r="G61">
@@ -4823,847 +5908,1337 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A11:J11 A7:H8 J12:J21 B17:B21 D17:D21 F12:F21 H12:H21 F1:H6">
-    <cfRule type="cellIs" dxfId="247" priority="469" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="470" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="471" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="472" operator="equal">
+  <conditionalFormatting sqref="A11:J11 A7:H8 J12:J21 B17:B21 D17:D21 F12:F21 H12:H21 F1:H6 A45 A47">
+    <cfRule type="cellIs" dxfId="387" priority="621" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="386" priority="622" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="623" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="624" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:G22 I22:J32 A23:H32">
-    <cfRule type="cellIs" dxfId="243" priority="465" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="466" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="467" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="617" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="618" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="619" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="380" priority="620" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="239" priority="449" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="450" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="451" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="601" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="602" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="603" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="604" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="235" priority="445" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="446" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="447" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="448" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:J43 A44">
-    <cfRule type="cellIs" dxfId="231" priority="333" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="334" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="335" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="336" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:H45 A46:F46 H46:H52 A47:E47 A48:D48 A49:C49 A50:B50 A51">
-    <cfRule type="cellIs" dxfId="227" priority="329" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="330" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="331" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="597" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="598" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="599" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="600" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:J43 A44 G36:J36 H34:J35 E37:J37 D38:J38 C39:J39 B40:J40">
+    <cfRule type="cellIs" dxfId="371" priority="485" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="486" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="487" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="488" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:F46 H46:H52 A48:D48 A49:C49 A50:B50 A51 B47:E47 D45:H45">
+    <cfRule type="cellIs" dxfId="367" priority="481" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="482" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="365" priority="483" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="484" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:G52">
-    <cfRule type="cellIs" dxfId="223" priority="325" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="326" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="327" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="477" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="478" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="479" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="480" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F52">
-    <cfRule type="cellIs" dxfId="219" priority="321" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="322" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="323" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="473" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="474" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="475" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="476" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E52">
-    <cfRule type="cellIs" dxfId="215" priority="317" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="318" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="319" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="469" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="470" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="471" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="472" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D52">
-    <cfRule type="cellIs" dxfId="211" priority="313" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="314" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="315" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="465" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="466" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="467" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="468" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C52">
-    <cfRule type="cellIs" dxfId="207" priority="309" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="310" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="311" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="461" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="462" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="463" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="464" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B52">
-    <cfRule type="cellIs" dxfId="203" priority="305" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="306" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="307" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="457" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="458" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="459" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="460" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="199" priority="301" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="302" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="303" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="453" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="454" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="455" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="456" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J54 A53:H54">
-    <cfRule type="cellIs" dxfId="195" priority="297" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="298" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="299" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="449" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="450" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="451" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="452" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:J65 I56:J63">
-    <cfRule type="cellIs" dxfId="191" priority="293" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="294" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="295" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="296" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:E56 G56:G62 A57:D57 A58:C58 A59:B59 A60">
-    <cfRule type="cellIs" dxfId="187" priority="277" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="278" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="279" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="445" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="446" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="447" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="448" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:E56 G56:G62 C57:D57 B58:C58 A59:B59 A60 C56:C58">
+    <cfRule type="cellIs" dxfId="327" priority="429" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="430" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="431" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="432" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F62">
-    <cfRule type="cellIs" dxfId="183" priority="273" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="274" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="275" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="425" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="426" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="427" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="428" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E62">
-    <cfRule type="cellIs" dxfId="179" priority="269" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="270" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="271" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="421" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="422" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="423" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="424" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D62">
-    <cfRule type="cellIs" dxfId="175" priority="265" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="266" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="267" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="417" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="418" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="419" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="420" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C62">
-    <cfRule type="cellIs" dxfId="171" priority="261" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="262" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="263" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="413" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="414" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="415" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="416" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62">
-    <cfRule type="cellIs" dxfId="167" priority="257" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="258" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="259" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="409" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="410" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="411" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="412" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A62">
-    <cfRule type="cellIs" dxfId="163" priority="253" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="254" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="255" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="405" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="406" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="407" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="408" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H63 A63:G63">
-    <cfRule type="cellIs" dxfId="159" priority="249" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="250" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="251" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="401" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="402" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="403" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="404" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J10">
-    <cfRule type="cellIs" dxfId="155" priority="193" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="194" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="195" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="345" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="346" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="347" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="348" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I8">
-    <cfRule type="cellIs" dxfId="151" priority="189" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="190" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="191" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="341" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="342" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="343" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="344" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I21 A17:A21 C17:C21 E17:E21 G12:G21">
-    <cfRule type="cellIs" dxfId="147" priority="185" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="186" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="187" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="337" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="338" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="339" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="340" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I10">
-    <cfRule type="cellIs" dxfId="143" priority="181" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="182" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="183" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="333" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="334" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="335" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="336" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G10">
-    <cfRule type="cellIs" dxfId="139" priority="177" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="178" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="179" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="329" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="330" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="331" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="332" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="135" priority="173" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="174" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="175" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="325" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="326" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="327" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="328" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="131" priority="169" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="170" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="171" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="321" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="322" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="323" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="324" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="cellIs" dxfId="127" priority="165" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="166" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="167" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="317" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="318" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="319" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="320" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="123" priority="161" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="162" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="163" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="313" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="314" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="315" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="316" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="cellIs" dxfId="119" priority="157" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="158" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="159" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="309" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="310" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="311" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="312" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A10">
-    <cfRule type="cellIs" dxfId="115" priority="153" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="154" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="155" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="305" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="306" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="307" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="308" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="111" priority="149" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="150" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="151" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="301" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="302" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="303" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="304" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I21 A20:A21 C20:C21 E20:E21 G20:G21">
-    <cfRule type="cellIs" dxfId="107" priority="145" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="146" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="147" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="297" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="298" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="299" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="300" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="103" priority="109" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="261" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="262" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="263" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="264" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D4">
-    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="257" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="258" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="260" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="249" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="250" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="251" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="252" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C4">
-    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="95" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="245" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="246" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="248" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B4">
-    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="90" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="91" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="241" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="242" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="243" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="244" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:E6">
-    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="87" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="237" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="238" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="239" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="240" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="233" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="234" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="235" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="236" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:D12">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="225" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="226" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="227" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="228" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:D15">
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="221" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="222" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="223" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="224" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="217" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="218" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="219" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="220" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="213" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="214" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="215" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="216" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="209" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="210" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="211" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="212" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 D16">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="205" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="206" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="207" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="208" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="201" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="202" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="203" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="204" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E4">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="197" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="198" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="199" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="200" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D4">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="193" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="194" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="195" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="196" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="189" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="190" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="191" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="192" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="185" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="186" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="187" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="188" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="181" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="182" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="183" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="184" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="178" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="179" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="180" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="173" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="174" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="175" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="176" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="169" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="170" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="171" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="172" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="165" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="166" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="167" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="168" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="161" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="147" priority="157" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="158" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="159" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="160" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="143" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="152" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="135" priority="145" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="146" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="147" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="148" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="131" priority="141" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="142" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="143" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="144" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="cellIs" dxfId="123" priority="133" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="134" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="135" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="136" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="cellIs" dxfId="119" priority="129" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="131" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="132" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="111" priority="121" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="107" priority="117" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="119" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="120" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="115" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="116" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="99" priority="109" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="cellIs" dxfId="95" priority="105" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="107" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="108" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36 E36:F36 C36">
+    <cfRule type="cellIs" dxfId="87" priority="97" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="98" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="100" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="83" priority="93" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="95" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="96" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="79" priority="89" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="91" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="75" priority="85" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="86" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="87" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="88" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="71" priority="81" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="cellIs" dxfId="63" priority="73" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="68" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:F61 E56:F59">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:D59 A59:C59">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:B46">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5677,7 +7252,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="A46">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>

--- a/HEW/assets/data.xlsx
+++ b/HEW/assets/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoki\Documents\GitHub\Edamame\HEW\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namen\OneDrive\ドキュメント\GitHub\Edamame2021\HEW\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="5676"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -666,7 +666,89 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="388">
+  <dxfs count="398">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE772EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF916837"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7BFD7E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3676,6 +3758,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE772EA"/>
+      <color rgb="FF7BFD7E"/>
+      <color rgb="FF916837"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3952,16 +4041,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>-1</v>
       </c>
@@ -3993,7 +4082,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -4025,7 +4114,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -4057,7 +4146,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -4089,7 +4178,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -4121,7 +4210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4153,7 +4242,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4185,7 +4274,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4217,7 +4306,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>-1</v>
       </c>
@@ -4249,7 +4338,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>-1</v>
       </c>
@@ -4281,12 +4370,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>-9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4318,7 +4407,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4350,7 +4439,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4382,7 +4471,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4414,7 +4503,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>4</v>
       </c>
@@ -4446,7 +4535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>-1</v>
       </c>
@@ -4478,7 +4567,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>-1</v>
       </c>
@@ -4510,7 +4599,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>-1</v>
       </c>
@@ -4542,7 +4631,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>-1</v>
       </c>
@@ -4574,7 +4663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>-1</v>
       </c>
@@ -4606,12 +4695,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>-9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>-1</v>
       </c>
@@ -4643,7 +4732,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>-1</v>
       </c>
@@ -4675,7 +4764,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>-1</v>
       </c>
@@ -4707,7 +4796,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>-1</v>
       </c>
@@ -4739,7 +4828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>-1</v>
       </c>
@@ -4771,7 +4860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>-1</v>
       </c>
@@ -4803,7 +4892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>-1</v>
       </c>
@@ -4835,7 +4924,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>-1</v>
       </c>
@@ -4867,7 +4956,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>-1</v>
       </c>
@@ -4899,7 +4988,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>-1</v>
       </c>
@@ -4931,12 +5020,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>-99</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>-1</v>
       </c>
@@ -4968,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -5000,7 +5089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>-1</v>
       </c>
@@ -5032,7 +5121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>-1</v>
       </c>
@@ -5064,7 +5153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>-1</v>
       </c>
@@ -5096,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>-1</v>
       </c>
@@ -5128,7 +5217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>-1</v>
       </c>
@@ -5160,7 +5249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5192,7 +5281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5224,7 +5313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5256,12 +5345,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>-9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>-1</v>
       </c>
@@ -5293,7 +5382,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>-1</v>
       </c>
@@ -5325,7 +5414,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>-1</v>
       </c>
@@ -5357,7 +5446,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2</v>
       </c>
@@ -5389,7 +5478,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2</v>
       </c>
@@ -5421,7 +5510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2</v>
       </c>
@@ -5453,7 +5542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>4</v>
       </c>
@@ -5485,7 +5574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>-1</v>
       </c>
@@ -5517,7 +5606,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>-1</v>
       </c>
@@ -5549,7 +5638,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>-1</v>
       </c>
@@ -5581,12 +5670,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>-9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3</v>
       </c>
@@ -5618,7 +5707,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3</v>
       </c>
@@ -5650,7 +5739,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>4</v>
       </c>
@@ -5682,7 +5771,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>-1</v>
       </c>
@@ -5714,7 +5803,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>-1</v>
       </c>
@@ -5746,7 +5835,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>-1</v>
       </c>
@@ -5778,7 +5867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>-1</v>
       </c>
@@ -5810,7 +5899,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>-1</v>
       </c>
@@ -5842,7 +5931,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>-1</v>
       </c>
@@ -5874,7 +5963,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>-1</v>
       </c>
@@ -5908,1362 +5997,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A11:J11 A7:H8 J12:J21 B17:B21 D17:D21 F12:F21 H12:H21 F1:H6 A45 A47">
-    <cfRule type="cellIs" dxfId="387" priority="621" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="622" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="623" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="624" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:G22 I22:J32 A23:H32">
-    <cfRule type="cellIs" dxfId="383" priority="617" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="618" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="619" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="620" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="379" priority="601" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="602" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="603" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="604" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="375" priority="597" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="598" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="599" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="600" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:J43 A44 G36:J36 H34:J35 E37:J37 D38:J38 C39:J39 B40:J40">
-    <cfRule type="cellIs" dxfId="371" priority="485" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="486" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="487" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="488" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:F46 H46:H52 A48:D48 A49:C49 A50:B50 A51 B47:E47 D45:H45">
-    <cfRule type="cellIs" dxfId="367" priority="481" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="482" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="483" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="484" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46:G52">
-    <cfRule type="cellIs" dxfId="363" priority="477" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="478" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="479" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="480" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="cellIs" dxfId="359" priority="473" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="474" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="475" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="476" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E52">
-    <cfRule type="cellIs" dxfId="355" priority="469" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="470" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="471" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="472" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D52">
-    <cfRule type="cellIs" dxfId="351" priority="465" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="466" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="467" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="468" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C52">
-    <cfRule type="cellIs" dxfId="347" priority="461" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="462" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="463" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="464" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B52">
-    <cfRule type="cellIs" dxfId="343" priority="457" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="458" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="459" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="460" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="339" priority="453" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="454" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="455" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="456" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:J54 A53:H54">
-    <cfRule type="cellIs" dxfId="335" priority="449" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="450" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="451" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="452" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:J65 I56:J63">
-    <cfRule type="cellIs" dxfId="331" priority="445" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="446" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="447" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="448" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:E56 G56:G62 C57:D57 B58:C58 A59:B59 A60 C56:C58">
-    <cfRule type="cellIs" dxfId="327" priority="429" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="430" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="431" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="432" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56:F62">
-    <cfRule type="cellIs" dxfId="323" priority="425" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="426" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="427" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="428" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E62">
-    <cfRule type="cellIs" dxfId="319" priority="421" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="422" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="423" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="424" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58:D62">
-    <cfRule type="cellIs" dxfId="315" priority="417" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="418" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="419" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="420" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C62">
-    <cfRule type="cellIs" dxfId="311" priority="413" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="414" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="415" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="416" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B62">
-    <cfRule type="cellIs" dxfId="307" priority="409" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="410" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="411" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="412" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="cellIs" dxfId="303" priority="405" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="406" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="407" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="408" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:H63 A63:G63">
-    <cfRule type="cellIs" dxfId="299" priority="401" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="402" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="403" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="404" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J10">
-    <cfRule type="cellIs" dxfId="295" priority="345" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="346" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="347" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="348" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I8">
-    <cfRule type="cellIs" dxfId="291" priority="341" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="342" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="343" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="344" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I21 A17:A21 C17:C21 E17:E21 G12:G21">
-    <cfRule type="cellIs" dxfId="287" priority="337" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="338" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="339" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="340" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I10">
-    <cfRule type="cellIs" dxfId="283" priority="333" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="334" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="335" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="336" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G10">
-    <cfRule type="cellIs" dxfId="279" priority="329" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="330" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="331" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="332" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="275" priority="325" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="326" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="327" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="328" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="271" priority="321" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="322" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="323" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="324" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
-    <cfRule type="cellIs" dxfId="267" priority="317" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="318" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="319" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="320" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="263" priority="313" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="314" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="315" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="316" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10">
-    <cfRule type="cellIs" dxfId="259" priority="309" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="310" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="311" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="312" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A10">
-    <cfRule type="cellIs" dxfId="255" priority="305" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="306" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="307" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="308" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="251" priority="301" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="302" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="303" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="304" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I21 A20:A21 C20:C21 E20:E21 G20:G21">
-    <cfRule type="cellIs" dxfId="247" priority="297" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="298" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="299" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="300" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E2">
-    <cfRule type="cellIs" dxfId="243" priority="261" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="262" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="263" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="264" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D4">
-    <cfRule type="cellIs" dxfId="239" priority="257" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="258" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="259" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="260" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A4">
-    <cfRule type="cellIs" dxfId="235" priority="249" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="250" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="251" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="252" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C4">
-    <cfRule type="cellIs" dxfId="231" priority="245" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="246" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="247" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="248" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4">
-    <cfRule type="cellIs" dxfId="227" priority="241" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="242" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="243" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="244" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:E6">
-    <cfRule type="cellIs" dxfId="223" priority="237" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="238" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="239" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="240" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="219" priority="233" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="234" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="235" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="236" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12">
-    <cfRule type="cellIs" dxfId="215" priority="225" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="226" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="227" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="228" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:D15">
-    <cfRule type="cellIs" dxfId="211" priority="221" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="222" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="223" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="224" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
-    <cfRule type="cellIs" dxfId="207" priority="217" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="218" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="219" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="220" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="203" priority="213" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="214" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="215" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="216" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="199" priority="209" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="210" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="211" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="212" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16 D16">
-    <cfRule type="cellIs" dxfId="195" priority="205" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="206" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="207" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="208" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="191" priority="201" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="202" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="203" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="204" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E4">
-    <cfRule type="cellIs" dxfId="187" priority="197" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="198" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="199" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="200" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D4">
-    <cfRule type="cellIs" dxfId="183" priority="193" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="194" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="195" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="196" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="179" priority="189" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="190" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="191" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="192" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="175" priority="185" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="186" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="187" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="188" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="171" priority="181" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="182" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="183" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="184" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="167" priority="177" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="178" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="179" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="180" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="163" priority="173" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="174" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="175" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="176" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="159" priority="169" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="170" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="171" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="172" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="155" priority="165" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="166" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="167" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="168" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="151" priority="161" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="147" priority="157" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="158" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="159" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="160" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="143" priority="153" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="155" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="156" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="152" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="135" priority="145" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="146" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="147" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="148" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="131" priority="141" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="142" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="143" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="144" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="123" priority="133" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="134" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="135" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="136" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="119" priority="129" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="131" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="132" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="111" priority="121" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="107" priority="117" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="119" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="120" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="115" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="116" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="99" priority="109" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="95" priority="105" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="107" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="108" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36 E36:F36 C36">
-    <cfRule type="cellIs" dxfId="87" priority="97" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="98" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="100" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="83" priority="93" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="95" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="96" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="79" priority="89" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="91" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="75" priority="85" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="86" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="87" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="88" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="71" priority="81" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="63" priority="73" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="68" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="39" priority="49" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="50" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="52" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:F61 E56:F59">
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="36" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D59 A59:C59">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HEW/assets/data.xlsx
+++ b/HEW/assets/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoki\Documents\GitHub\Edamame\HEW\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yudai\OneDrive\デスクトップ\HEW\Edamame9\HEW\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="5676"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -997,16 +997,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>-1</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1198,12 +1198,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1230,7 +1230,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>-1</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>-1</v>
       </c>
@@ -1326,12 +1326,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>-9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>-1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>-1</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>-1</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>-1</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>-1</v>
       </c>
@@ -1651,12 +1651,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>-9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>-1</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>-1</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>-1</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>-1</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>-1</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>-1</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>-1</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>-1</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>-1</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>-1</v>
       </c>
@@ -1976,12 +1976,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>-99</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>-1</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>-1</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>-1</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>-1</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>-1</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>-1</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2301,12 +2301,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>-9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>-1</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>-1</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>-1</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>-1</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>-1</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>-1</v>
       </c>
@@ -2626,12 +2626,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>-9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>4</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>-1</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>-1</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>-1</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>-1</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>-1</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>-1</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>-1</v>
       </c>

--- a/HEW/assets/data.xlsx
+++ b/HEW/assets/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yudai\OneDrive\デスクトップ\HEW\Edamame9\HEW\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoki\Documents\GitHub\Edamame\HEW\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13596" windowHeight="5676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -997,16 +997,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>-1</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>-1</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>-1</v>
       </c>
@@ -1326,12 +1326,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>-9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>-1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>-1</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>-1</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>-1</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>-1</v>
       </c>
@@ -1651,12 +1651,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>-9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>-1</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>-1</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>-1</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>-1</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>-1</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>-1</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>-1</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>-1</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>-1</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>-1</v>
       </c>
@@ -1976,12 +1976,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>-99</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>-1</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>-1</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>-1</v>
       </c>
@@ -2103,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>-1</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>-1</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>-1</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2301,12 +2301,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>-9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>-1</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>-1</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>-1</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>-1</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>-1</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>-1</v>
       </c>
@@ -2626,12 +2626,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>-9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>4</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>-1</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>-1</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>-1</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>-1</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>-1</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>-1</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>-1</v>
       </c>

--- a/HEW/assets/data.xlsx
+++ b/HEW/assets/data.xlsx
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BG39" sqref="BG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2234,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J42">
         <v>2</v>

--- a/HEW/assets/data.xlsx
+++ b/HEW/assets/data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -668,9 +668,33 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE772EA"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF916837"/>
         </patternFill>
       </fill>
     </dxf>
@@ -684,31 +708,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF916837"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor rgb="FFE772EA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG39" sqref="BG39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1345,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -2954,23 +2954,23 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
-      <formula>-1</formula>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HEW/assets/data.xlsx
+++ b/HEW/assets/data.xlsx
@@ -998,7 +998,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1250,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>0</v>
